--- a/Metrics/LoadedTrainingMetrics.xlsx
+++ b/Metrics/LoadedTrainingMetrics.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.904</v>
+        <v>0.898</v>
       </c>
       <c r="C3" t="n">
-        <v>0.896</v>
+        <v>0.89</v>
       </c>
       <c r="D3" t="n">
-        <v>0.105</v>
+        <v>0.112</v>
       </c>
       <c r="E3" t="n">
-        <v>0.324</v>
+        <v>0.335</v>
       </c>
       <c r="F3" t="n">
-        <v>0.238</v>
+        <v>0.241</v>
       </c>
       <c r="G3" t="n">
-        <v>0.974</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.593</v>
+        <v>0.803</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.787</v>
       </c>
       <c r="D4" t="n">
-        <v>0.445</v>
+        <v>0.216</v>
       </c>
       <c r="E4" t="n">
-        <v>0.667</v>
+        <v>0.465</v>
       </c>
       <c r="F4" t="n">
-        <v>0.47</v>
+        <v>0.349</v>
       </c>
       <c r="G4" t="n">
-        <v>0.863</v>
+        <v>0.9360000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.613</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.596</v>
       </c>
       <c r="D5" t="n">
-        <v>0.199</v>
+        <v>0.422</v>
       </c>
       <c r="E5" t="n">
-        <v>0.446</v>
+        <v>0.65</v>
       </c>
       <c r="F5" t="n">
-        <v>0.345</v>
+        <v>0.468</v>
       </c>
       <c r="G5" t="n">
-        <v>0.916</v>
+        <v>0.784</v>
       </c>
     </row>
   </sheetData>

--- a/Metrics/LoadedTrainingMetrics.xlsx
+++ b/Metrics/LoadedTrainingMetrics.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.898</v>
+        <v>0.901</v>
       </c>
       <c r="C3" t="n">
-        <v>0.89</v>
+        <v>0.893</v>
       </c>
       <c r="D3" t="n">
-        <v>0.112</v>
+        <v>0.108</v>
       </c>
       <c r="E3" t="n">
-        <v>0.335</v>
+        <v>0.329</v>
       </c>
       <c r="F3" t="n">
-        <v>0.241</v>
+        <v>0.238</v>
       </c>
       <c r="G3" t="n">
-        <v>0.972</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.803</v>
+        <v>0.636</v>
       </c>
       <c r="C4" t="n">
-        <v>0.787</v>
+        <v>0.606</v>
       </c>
       <c r="D4" t="n">
-        <v>0.216</v>
+        <v>0.398</v>
       </c>
       <c r="E4" t="n">
-        <v>0.465</v>
+        <v>0.631</v>
       </c>
       <c r="F4" t="n">
-        <v>0.349</v>
+        <v>0.477</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.898</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.613</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.596</v>
+        <v>0.54</v>
       </c>
       <c r="D5" t="n">
-        <v>0.422</v>
+        <v>0.481</v>
       </c>
       <c r="E5" t="n">
-        <v>0.65</v>
+        <v>0.694</v>
       </c>
       <c r="F5" t="n">
-        <v>0.468</v>
+        <v>0.52</v>
       </c>
       <c r="G5" t="n">
-        <v>0.784</v>
+        <v>0.836</v>
       </c>
     </row>
   </sheetData>

--- a/Metrics/LoadedTrainingMetrics.xlsx
+++ b/Metrics/LoadedTrainingMetrics.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Metrics/LoadedTrainingMetrics.xlsx
+++ b/Metrics/LoadedTrainingMetrics.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4</v>
+        <v>0.224</v>
       </c>
       <c r="C2" t="n">
-        <v>0.351</v>
+        <v>0.16</v>
       </c>
       <c r="D2" t="n">
-        <v>0.655</v>
+        <v>0.848</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.921</v>
       </c>
       <c r="F2" t="n">
-        <v>0.601</v>
+        <v>0.675</v>
       </c>
       <c r="G2" t="n">
-        <v>0.633</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.901</v>
+        <v>0.639</v>
       </c>
       <c r="C3" t="n">
-        <v>0.893</v>
+        <v>0.609</v>
       </c>
       <c r="D3" t="n">
-        <v>0.108</v>
+        <v>0.394</v>
       </c>
       <c r="E3" t="n">
-        <v>0.329</v>
+        <v>0.628</v>
       </c>
       <c r="F3" t="n">
-        <v>0.238</v>
+        <v>0.362</v>
       </c>
       <c r="G3" t="n">
-        <v>0.973</v>
+        <v>0.8070000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.636</v>
+        <v>0.041</v>
       </c>
       <c r="C4" t="n">
-        <v>0.606</v>
+        <v>-0.038</v>
       </c>
       <c r="D4" t="n">
-        <v>0.398</v>
+        <v>1.047</v>
       </c>
       <c r="E4" t="n">
-        <v>0.631</v>
+        <v>1.023</v>
       </c>
       <c r="F4" t="n">
-        <v>0.477</v>
+        <v>0.75</v>
       </c>
       <c r="G4" t="n">
-        <v>0.898</v>
+        <v>0.228</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.501</v>
       </c>
       <c r="C5" t="n">
-        <v>0.54</v>
+        <v>0.479</v>
       </c>
       <c r="D5" t="n">
-        <v>0.481</v>
+        <v>0.544</v>
       </c>
       <c r="E5" t="n">
-        <v>0.694</v>
+        <v>0.738</v>
       </c>
       <c r="F5" t="n">
-        <v>0.52</v>
+        <v>0.554</v>
       </c>
       <c r="G5" t="n">
-        <v>0.836</v>
+        <v>0.727</v>
       </c>
     </row>
   </sheetData>

--- a/Metrics/LoadedTrainingMetrics.xlsx
+++ b/Metrics/LoadedTrainingMetrics.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,6 +565,31 @@
         <v>0.727</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
